--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン要求" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="ログイン結果" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="準備完了" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="クライアント準備完了" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="サーバ準備完了" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -46,6 +47,24 @@
   </si>
   <si>
     <t xml:space="preserve">ClientReady</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketServerReady</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServerReady</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$MEMBER$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharacterId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キャラクタID</t>
   </si>
 </sst>
 </file>
@@ -161,7 +180,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -218,7 +237,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -256,7 +275,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
@@ -271,11 +290,11 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.76171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -313,7 +332,74 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>

--- a/Packet/PacketData/LogIn.xlsx
+++ b/Packet/PacketData/LogIn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t xml:space="preserve">キャラクタID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vec3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">座標</t>
   </si>
 </sst>
 </file>
@@ -180,7 +189,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -237,7 +246,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -294,7 +303,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -348,10 +357,10 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -388,8 +397,18 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
